--- a/packages/example-app/src/assets/example.xlsx
+++ b/packages/example-app/src/assets/example.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\akatonboX\ts-exceljs-utility\packages\example-app\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CE13136-181A-4B83-9D83-EFEB47D675C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF8D1EA-8069-45E2-B249-CF53E7CB0026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25770" yWindow="-4510" windowWidth="19290" windowHeight="15450" xr2:uid="{ADD96C75-9F89-4FA2-AD02-206A303BF0FA}"/>
+    <workbookView xWindow="20500" yWindow="-9410" windowWidth="28800" windowHeight="15450" xr2:uid="{ADD96C75-9F89-4FA2-AD02-206A303BF0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AI$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$AL$43</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>asset excel file</t>
     <phoneticPr fontId="1"/>
@@ -425,9 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD192CCC-B5A5-4ADA-BC4D-D3B170AA48B1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -439,5 +442,26 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919B06C0-ACF6-48AB-BE9F-9FEE7D44B38D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>